--- a/Acceptance Tests/Specialist.xlsx
+++ b/Acceptance Tests/Specialist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -227,9 +227,6 @@
     <t>Gynecology</t>
   </si>
   <si>
-    <t>Data Table: Speciality</t>
-  </si>
-  <si>
     <t>Audiology</t>
   </si>
   <si>
@@ -525,6 +522,42 @@
   </si>
   <si>
     <t>Orthopedy</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Create Lab Refernce</t>
+  </si>
+  <si>
+    <t>Create Lab Refernce</t>
+  </si>
+  <si>
+    <t>SuccessfulCreate</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System checks for aviable medical field and examination type. System notify for new lab refernce, and show a print option.</t>
+  </si>
+  <si>
+    <t>new lab refernce created</t>
+  </si>
+  <si>
+    <t>1. Open "Create  new client" window.
+2. Insert medical field: Cardioligy
+3. Insert examination type: Electrocardiography
+4. Click ok button.</t>
+  </si>
+  <si>
+    <t>Data Table:  Examination type</t>
+  </si>
+  <si>
+    <t>Medical field</t>
+  </si>
+  <si>
+    <t>Data Table: Medical field</t>
+  </si>
+  <si>
+    <t>Examination type</t>
+  </si>
+  <si>
+    <t>Electrocardiography</t>
   </si>
 </sst>
 </file>
@@ -833,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -948,9 +981,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,6 +1015,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H92"/>
+  <dimension ref="A2:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1316,56 +1361,56 @@
   <sheetData>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>107</v>
+      <c r="H3" s="46" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="17">
         <v>1234</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="18">
         <v>1001</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="18">
         <v>11</v>
@@ -1373,25 +1418,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="12">
         <v>4321</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="14">
         <v>1002</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="14">
         <v>22</v>
@@ -1399,25 +1444,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="13">
         <v>5431</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F6" s="14">
         <v>1003</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="14">
         <v>33</v>
@@ -1425,25 +1470,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="F7" s="14">
         <v>1004</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="14">
         <v>44</v>
@@ -1451,25 +1496,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="F8" s="14">
         <v>1005</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
@@ -1477,25 +1522,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>121</v>
+      <c r="D9" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="14">
         <v>1006</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
@@ -1503,25 +1548,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="F10" s="14">
         <v>1007</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -1529,25 +1574,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="C11" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F11" s="14">
         <v>1008</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="14">
         <v>11</v>
@@ -1555,25 +1600,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="13">
         <v>4321</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="14">
         <v>1009</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="14">
         <v>22</v>
@@ -1581,25 +1626,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>146</v>
-      </c>
       <c r="C13" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="F13" s="14">
         <v>1010</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="14">
         <v>33</v>
@@ -1607,25 +1652,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="14">
         <v>1011</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="14">
         <v>44</v>
@@ -1633,25 +1678,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="F15" s="14">
         <v>1012</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -1739,7 +1784,7 @@
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>51</v>
@@ -1756,7 +1801,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1799,15 +1844,14 @@
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="39"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
@@ -1839,28 +1883,28 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="40"/>
@@ -1872,15 +1916,15 @@
     </row>
     <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>68</v>
       </c>
       <c r="C44" s="39"/>
     </row>
@@ -1888,7 +1932,7 @@
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="40"/>
@@ -1897,8 +1941,8 @@
       <c r="A46" s="2">
         <v>22</v>
       </c>
-      <c r="B46" s="44" t="s">
-        <v>69</v>
+      <c r="B46" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="C46" s="40"/>
     </row>
@@ -1906,8 +1950,8 @@
       <c r="A47" s="3">
         <v>33</v>
       </c>
-      <c r="B47" s="45" t="s">
-        <v>70</v>
+      <c r="B47" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="40"/>
     </row>
@@ -1915,8 +1959,8 @@
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="45" t="s">
-        <v>71</v>
+      <c r="B48" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C48" s="40"/>
     </row>
@@ -1927,7 +1971,7 @@
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1938,7 +1982,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1949,7 +1993,7 @@
         <v>1001</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1960,7 +2004,7 @@
         <v>1002</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,7 +2015,7 @@
         <v>1003</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,7 +2026,7 @@
         <v>1001</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1993,7 +2037,7 @@
         <v>1002</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,7 +2048,7 @@
         <v>1004</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2015,7 +2059,7 @@
         <v>1002</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2026,7 +2070,7 @@
         <v>1003</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,26 +2081,26 @@
         <v>1004</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="43" t="s">
-        <v>67</v>
+      <c r="B64" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2067,9 +2111,9 @@
         <v>11</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="51">
+        <v>155</v>
+      </c>
+      <c r="D65" s="50">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2081,9 +2125,9 @@
         <v>11</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="52">
+        <v>155</v>
+      </c>
+      <c r="D66" s="51">
         <v>0.4375</v>
       </c>
     </row>
@@ -2095,9 +2139,9 @@
         <v>22</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="52">
+        <v>155</v>
+      </c>
+      <c r="D67" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2109,9 +2153,9 @@
         <v>11</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="52">
+        <v>155</v>
+      </c>
+      <c r="D68" s="51">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2123,9 +2167,9 @@
         <v>22</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="52">
+        <v>156</v>
+      </c>
+      <c r="D69" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2137,9 +2181,9 @@
         <v>44</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="52">
+        <v>156</v>
+      </c>
+      <c r="D70" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -2151,9 +2195,9 @@
         <v>22</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="52">
+        <v>156</v>
+      </c>
+      <c r="D71" s="51">
         <v>0.72916666666666663</v>
       </c>
     </row>
@@ -2165,9 +2209,9 @@
         <v>44</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="52">
+        <v>157</v>
+      </c>
+      <c r="D72" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2179,9 +2223,9 @@
         <v>11</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="51">
+        <v>157</v>
+      </c>
+      <c r="D73" s="50">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -2193,9 +2237,9 @@
         <v>11</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" s="52">
+        <v>157</v>
+      </c>
+      <c r="D74" s="51">
         <v>0.4375</v>
       </c>
     </row>
@@ -2207,9 +2251,9 @@
         <v>22</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="52">
+        <v>157</v>
+      </c>
+      <c r="D75" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2221,9 +2265,9 @@
         <v>11</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="52">
+        <v>158</v>
+      </c>
+      <c r="D76" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2235,9 +2279,9 @@
         <v>22</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="52">
+        <v>158</v>
+      </c>
+      <c r="D77" s="51">
         <v>0.4375</v>
       </c>
     </row>
@@ -2249,9 +2293,9 @@
         <v>44</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="52">
+        <v>158</v>
+      </c>
+      <c r="D78" s="51">
         <v>0.4375</v>
       </c>
     </row>
@@ -2263,9 +2307,9 @@
         <v>22</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="52">
+        <v>158</v>
+      </c>
+      <c r="D79" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -2277,29 +2321,29 @@
         <v>44</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="52">
+        <v>158</v>
+      </c>
+      <c r="D80" s="51">
         <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="43" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2310,9 +2354,9 @@
         <v>11</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" s="51">
+        <v>150</v>
+      </c>
+      <c r="D84" s="50">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2324,9 +2368,9 @@
         <v>11</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="52">
+        <v>150</v>
+      </c>
+      <c r="D85" s="51">
         <v>0.4375</v>
       </c>
     </row>
@@ -2338,9 +2382,9 @@
         <v>22</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="52">
+        <v>151</v>
+      </c>
+      <c r="D86" s="51">
         <v>0.375</v>
       </c>
     </row>
@@ -2352,9 +2396,9 @@
         <v>11</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="52">
+        <v>153</v>
+      </c>
+      <c r="D87" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2366,9 +2410,9 @@
         <v>22</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D88" s="52">
+        <v>152</v>
+      </c>
+      <c r="D88" s="51">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2380,9 +2424,9 @@
         <v>44</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D89" s="52">
+        <v>154</v>
+      </c>
+      <c r="D89" s="51">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -2394,9 +2438,9 @@
         <v>22</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="52">
+        <v>151</v>
+      </c>
+      <c r="D90" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2408,9 +2452,9 @@
         <v>33</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" s="52">
+        <v>151</v>
+      </c>
+      <c r="D91" s="51">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2422,10 +2466,31 @@
         <v>44</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D92" s="52">
+        <v>154</v>
+      </c>
+      <c r="D92" s="51">
         <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2456,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2469,10 +2534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -2487,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2596,10 +2661,84 @@
         <v>45</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="53"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Acceptance Tests/Specialist.xlsx
+++ b/Acceptance Tests/Specialist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -558,13 +558,37 @@
   </si>
   <si>
     <t>Electrocardiography</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>Otorhinolaryngology</t>
+  </si>
+  <si>
+    <t>sinusitis</t>
+  </si>
+  <si>
+    <t>Hearing test</t>
+  </si>
+  <si>
+    <t>orthodontics</t>
+  </si>
+  <si>
+    <t>psoriasis</t>
+  </si>
+  <si>
+    <t>Tova</t>
+  </si>
+  <si>
+    <t>Papilloma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +642,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -645,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -861,12 +889,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1011,25 +1052,34 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H96"/>
+  <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="189" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2478,19 +2528,75 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="59" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="60" t="s">
         <v>170</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2521,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2534,10 +2640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -2663,10 +2769,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -2704,7 +2810,7 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="54"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
@@ -2720,17 +2826,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="10" t="s">
         <v>164</v>
       </c>
     </row>

--- a/Acceptance Tests/Specialist.xlsx
+++ b/Acceptance Tests/Specialist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="181">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -539,49 +539,61 @@
     <t>new lab refernce created</t>
   </si>
   <si>
-    <t>1. Open "Create  new client" window.
+    <t>Data Table:  Examination type</t>
+  </si>
+  <si>
+    <t>Medical field</t>
+  </si>
+  <si>
+    <t>Data Table: Medical field</t>
+  </si>
+  <si>
+    <t>Examination type</t>
+  </si>
+  <si>
+    <t>Electrocardiography</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>Otorhinolaryngology</t>
+  </si>
+  <si>
+    <t>sinusitis</t>
+  </si>
+  <si>
+    <t>Hearing test</t>
+  </si>
+  <si>
+    <t>orthodontics</t>
+  </si>
+  <si>
+    <t>psoriasis</t>
+  </si>
+  <si>
+    <t>Tova</t>
+  </si>
+  <si>
+    <t>Papilloma</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
 2. Insert medical field: Cardioligy
 3. Insert examination type: Electrocardiography
 4. Click ok button.</t>
   </si>
   <si>
-    <t>Data Table:  Examination type</t>
-  </si>
-  <si>
-    <t>Medical field</t>
-  </si>
-  <si>
-    <t>Data Table: Medical field</t>
-  </si>
-  <si>
-    <t>Examination type</t>
-  </si>
-  <si>
-    <t>Electrocardiography</t>
-  </si>
-  <si>
-    <t>physiotherapy</t>
-  </si>
-  <si>
-    <t>Otorhinolaryngology</t>
-  </si>
-  <si>
-    <t>sinusitis</t>
-  </si>
-  <si>
-    <t>Hearing test</t>
-  </si>
-  <si>
-    <t>orthodontics</t>
-  </si>
-  <si>
-    <t>psoriasis</t>
-  </si>
-  <si>
-    <t>Tova</t>
-  </si>
-  <si>
-    <t>Papilloma</t>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert medical field: Cardioligy
+3. Insert examination type: 
+4. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled.
+ System reports about "examination type".
+System asks the specialist to insert examination type.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -902,12 +914,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1055,32 +1082,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1393,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="189" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A91" zoomScale="189" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1894,12 +1933,12 @@
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="39"/>
     </row>
@@ -2411,7 +2450,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85" s="60">
         <v>200940997</v>
       </c>
       <c r="B85" s="12">
@@ -2524,76 +2563,76 @@
     </row>
     <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="56" t="s">
         <v>169</v>
-      </c>
-      <c r="B95" s="59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="60" t="s">
-        <v>170</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="58" t="s">
-        <v>171</v>
+      <c r="A97" s="54" t="s">
+        <v>170</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="58" t="s">
-        <v>178</v>
+      <c r="A98" s="54" t="s">
+        <v>177</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="58" t="s">
+      <c r="A99" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="54" t="s">
         <v>173</v>
-      </c>
-      <c r="B99" s="57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="58" t="s">
-        <v>174</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="58" t="s">
-        <v>175</v>
+      <c r="A101" s="54" t="s">
+        <v>174</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="58" t="s">
-        <v>176</v>
+      <c r="A102" s="54" t="s">
+        <v>175</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="61" t="s">
-        <v>177</v>
+      <c r="A103" s="57" t="s">
+        <v>176</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>64</v>
@@ -2627,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2640,10 +2679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -2769,10 +2808,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="59"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -2826,18 +2865,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="64" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Acceptance Tests/Specialist.xlsx
+++ b/Acceptance Tests/Specialist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -2667,7 +2667,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Acceptance Tests/Specialist.xlsx
+++ b/Acceptance Tests/Specialist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" activeTab="1"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -548,16 +548,10 @@
     <t>Data Table: Medical field</t>
   </si>
   <si>
-    <t>Examination type</t>
-  </si>
-  <si>
     <t>Electrocardiography</t>
   </si>
   <si>
     <t>physiotherapy</t>
-  </si>
-  <si>
-    <t>Otorhinolaryngology</t>
   </si>
   <si>
     <t>sinusitis</t>
@@ -594,6 +588,12 @@
     <t>System checks that all required fields are filled.
  System reports about "examination type".
 System asks the specialist to insert examination type.</t>
+  </si>
+  <si>
+    <t>Examination code</t>
+  </si>
+  <si>
+    <t>Examination name</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -902,19 +902,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -934,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1082,28 +1069,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1120,6 +1095,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H103"/>
+  <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="189" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="189" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2450,7 +2434,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="60">
+      <c r="A85" s="56">
         <v>200940997</v>
       </c>
       <c r="B85" s="12">
@@ -2568,75 +2552,79 @@
     </row>
     <row r="95" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="45">
+        <v>2001</v>
+      </c>
+      <c r="B96" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="43">
+        <v>2002</v>
+      </c>
+      <c r="B97" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="54" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="43">
+        <v>2003</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="43">
+        <v>2004</v>
+      </c>
+      <c r="B99" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="B97" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="54" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="43">
+        <v>2005</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="43">
+        <v>2006</v>
+      </c>
+      <c r="B101" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B99" s="53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="43">
+        <v>2007</v>
+      </c>
+      <c r="B102" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="43">
+        <v>2008</v>
+      </c>
+      <c r="B103" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2666,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2679,10 +2667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -2808,10 +2796,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="63"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -2866,28 +2854,28 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>178</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>180</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>41</v>

--- a/Acceptance Tests/Specialist.xlsx
+++ b/Acceptance Tests/Specialist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="25600" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="260">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -594,6 +594,296 @@
   </si>
   <si>
     <t>Examination name</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View Client's History</t>
+  </si>
+  <si>
+    <t>View Client's History</t>
+  </si>
+  <si>
+    <t>HistoryFound</t>
+  </si>
+  <si>
+    <t>Client history in DB.</t>
+  </si>
+  <si>
+    <t>System checks available history for this client. System check if the choosen date isn't empty. show the choosen date.</t>
+  </si>
+  <si>
+    <t>NotSelectedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "History Client" window.
+2. Scroll down to view all history by date.
+3. choose: 1.1.16 (for client id: 302632195)
+4. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>1. Open "History Client" window.
+2. Scroll down to view all history by date.
+3. choose:
+4. Click OK button</t>
+  </si>
+  <si>
+    <t>in case the user clicks ok without choosing a date</t>
+  </si>
+  <si>
+    <t>1. Open "History Client" window.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Record Appointment</t>
+  </si>
+  <si>
+    <t>Record Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Record Appointment" window.
+2. type: complainant  for Headache.
+3. Click save button.
+                                           </t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System save text and  appointment details System show "Saved successfully".</t>
+  </si>
+  <si>
+    <t>successfully saved in system</t>
+  </si>
+  <si>
+    <t>1. Open "Record Appointment" window.
+2. type:
+3. Click save button.</t>
+  </si>
+  <si>
+    <t>EmptyTextBox</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose date before continue". Return to history client screen.</t>
+  </si>
+  <si>
+    <t>1. Open "Record Appointment" window.</t>
+  </si>
+  <si>
+    <t>in case the user clicks save without filling the textbox.</t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System display error, cannot leave textbox empty. System return to Record Appointment windows.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View examination results</t>
+  </si>
+  <si>
+    <t>View examination results</t>
+  </si>
+  <si>
+    <t>Data Table:  Examination Result</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>catheterization, positive</t>
+  </si>
+  <si>
+    <t>attached</t>
+  </si>
+  <si>
+    <t>Scoliosis , There is severe Scoliosis.</t>
+  </si>
+  <si>
+    <t>Upper Respiratory Tract Infection , he has it</t>
+  </si>
+  <si>
+    <t>not attached</t>
+  </si>
+  <si>
+    <t>Refernce Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Choose: 3001 
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System checks available examination results for this client. System check if the choosen reference has result. System display examination results.</t>
+  </si>
+  <si>
+    <t>display examination results</t>
+  </si>
+  <si>
+    <t>RecordAppointment</t>
+  </si>
+  <si>
+    <t>ExaminationResults</t>
+  </si>
+  <si>
+    <t>NotSelectedReference</t>
+  </si>
+  <si>
+    <t>1. Open "View examination results" window.
+2. Choose: 
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose reference before continue". Return to View examination results screen.</t>
+  </si>
+  <si>
+    <t>in case the user clicks ok without choosing a reference</t>
+  </si>
+  <si>
+    <t>1. Open "View examination results" window.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Choose: 3004 
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System checks available examination results for this client. System displays error message "Lab worker didn't provide the results yet". Return to View examination results screen.</t>
+  </si>
+  <si>
+    <t>Lab worker didn't provide the results yet.</t>
+  </si>
+  <si>
+    <t>ResultNotReady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">system check for valid result. 
+Validation failed. System displays error message " there are no lab examinations". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> there are no lab examinations.</t>
+  </si>
+  <si>
+    <t>EmptyLabExaminations</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: End medical treatment</t>
+  </si>
+  <si>
+    <t>End medical treatment</t>
+  </si>
+  <si>
+    <t>EndProcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "End medical treatment" window.
+2. type price: 2000$ 
+3. Click enter button.
+4. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System ask for the cost of the treatment. System display the record of the appointment and the cost. System 2. SYSTEM sends a report to the doctor who create the reference,  a bill to the client's clinic, save report at client's medical file.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close treatment </t>
+  </si>
+  <si>
+    <t>in case the user clicks enter without insert a price</t>
+  </si>
+  <si>
+    <t>1. Open "End medical treatment" window.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "End medical treatment" window.
+2. type price: 300$ 
+3. Click enter button.
+4. Click cancel button.
+                                           </t>
+  </si>
+  <si>
+    <t>1. Open "End medical treatment" window.
+2. type price: 
+3. Click enter button.</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+system check for valid choose. 
+Validation failed. System displays error message "must insert price before continue". Return to End medical treatment screen.</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+System checks if 3 min passed,
+System throws out a warning "Timed Out". System log out.</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>cancel Process</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+System display the record of the appointment and the cost.
+System cancel the process and return to
+End medical treatment screen and display " process canceled".</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer details</t>
+  </si>
+  <si>
+    <t>Transfer details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Transfer details" window.
+2. choose: 1
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>TransferDetails</t>
+  </si>
+  <si>
+    <t>transfer Succeeded.</t>
+  </si>
+  <si>
+    <t>1. Open "Transfer details" window.
+2. choose: 4
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>WrongChoice</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+system check for valid choose. 
+Validation failed. System displays error message "must number between 1-2 before continue". Return to Transfer details screen.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+ system check for valid choose.
+System transfer the whole file and display
+"transfer Succeeded".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in case the user clicks wrong choice </t>
   </si>
 </sst>
 </file>
@@ -659,7 +949,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,8 +974,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -916,12 +1212,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1066,9 +1375,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,20 +1387,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,7 +1450,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="189" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2799,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="56">
+      <c r="A85" s="55">
         <v>200940997</v>
       </c>
       <c r="B85" s="12">
@@ -2557,74 +2922,86 @@
       <c r="B95" s="42" t="s">
         <v>180</v>
       </c>
+      <c r="C95" s="57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="45">
         <v>2001</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="53" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="43">
         <v>2002</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="52" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="43">
         <v>2003</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="52" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="43">
         <v>2004</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="43">
         <v>2005</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="52" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="43">
         <v>2006</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="52" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="43">
         <v>2007</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="43">
         <v>2008</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="54" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="64"/>
-      <c r="B104" s="64"/>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="56"/>
+      <c r="B104" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2652,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2667,10 +3044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -2796,96 +3173,838 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="60" t="s">
         <v>161</v>
       </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="62" t="s">
         <v>91</v>
       </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="64" t="s">
         <v>39</v>
       </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="74" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="77" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>302632195</v>
+      </c>
+      <c r="B33" s="17">
+        <v>11</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="50">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>302632195</v>
+      </c>
+      <c r="B34" s="13">
+        <v>22</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B35" s="13">
+        <v>11</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="51">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B36" s="13">
+        <v>22</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B37" s="13">
+        <v>44</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="51">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>312143969</v>
+      </c>
+      <c r="B38" s="13">
+        <v>22</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="51">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>312143969</v>
+      </c>
+      <c r="B39" s="13">
+        <v>44</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="80"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="80"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>3001</v>
+      </c>
+      <c r="B85" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>3002</v>
+      </c>
+      <c r="B86" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>3003</v>
+      </c>
+      <c r="B87" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>3004</v>
+      </c>
+      <c r="B88" s="84"/>
+      <c r="C88" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="80"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="23"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D103" s="87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="80"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="23"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="80"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="23"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+    </row>
+    <row r="147" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A141:B141"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
